--- a/backend/web/static/graduate.xlsx
+++ b/backend/web/static/graduate.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6ADA1B7A-CBDC-4302-A0BB-AB73F6013542}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86E65902-F72D-464B-AAEA-B5E2D59C7783}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Level</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -283,11 +283,34 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>7/2-7/22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mino Nong</t>
+    <t>7/24-8/13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Victor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/24-8/13</t>
+  </si>
+  <si>
+    <t>Coral</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emily</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +367,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="苹方-简 常规体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -365,9 +402,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -650,14 +697,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -693,14 +742,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15.6">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1">
@@ -710,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>1734</v>
+        <v>1290</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -719,9 +768,169 @@
         <v>100</v>
       </c>
       <c r="I2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1290</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1290</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1290</v>
+      </c>
+      <c r="G5" s="1">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1290</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" ht="15.6">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1290</v>
+      </c>
+      <c r="G7" s="1">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/backend/web/static/graduate.xlsx
+++ b/backend/web/static/graduate.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86E65902-F72D-464B-AAEA-B5E2D59C7783}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BEF250B1-ED1B-4465-9416-4E4E71A91FDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Level</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -283,34 +283,67 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>7/24-8/13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anna</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Victor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/24-8/13</t>
-  </si>
-  <si>
-    <t>Coral</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Amy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Amber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emily</t>
+    <t>7/30-8/19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odin</t>
+    <rPh sb="0" eb="4">
+      <t>wan shang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/30-8/19</t>
+  </si>
+  <si>
+    <t>Angel Zheng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ocean</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完课</t>
+    <rPh sb="0" eb="2">
+      <t>wan ke</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kathy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivy</t>
+    <rPh sb="0" eb="3">
+      <t>dianyi'hou</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alicia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Candy Sun</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spencer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carol</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -407,14 +440,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -697,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -742,196 +775,356 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.6">
-      <c r="A2" s="2">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="15.6">
+      <c r="A2" s="5">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2957</v>
+      </c>
+      <c r="G2" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" ht="15.6">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2957</v>
+      </c>
+      <c r="G3" s="2">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="15.6">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2957</v>
+      </c>
+      <c r="G4" s="2">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="15.6">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>17154</v>
+      </c>
+      <c r="G5" s="2">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" ht="15.6">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>17154</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" ht="15.6">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>17154</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>17154</v>
+      </c>
+      <c r="G8" s="2">
+        <v>21</v>
+      </c>
+      <c r="H8" s="5">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>17154</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>17154</v>
+      </c>
+      <c r="G10" s="2">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>17154</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6">
+      <c r="A12" s="5">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>17154</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1290</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>100</v>
-      </c>
-      <c r="I2" s="1">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="15.6">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1290</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="15.6">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1290</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="15.6">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1290</v>
-      </c>
-      <c r="G5" s="1">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="15.6">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1290</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="15.6">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1290</v>
-      </c>
-      <c r="G7" s="1">
-        <v>21</v>
-      </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
